--- a/BKBND.xlsx
+++ b/BKBND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winston\Desktop\leerdocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston.brandon\OneDrive - de Bibliotheek Zuid-Kennemerland\Bureaublad\leerdocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B274FDB4-BAC5-40EE-968F-AB231D38DF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F3808-09D9-4BE1-AB4D-59E1847B1440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1155" windowWidth="20535" windowHeight="13485" activeTab="3" xr2:uid="{C320AA26-98FB-4078-B620-07C4FC4DB1CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{C320AA26-98FB-4078-B620-07C4FC4DB1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Opsomming" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>W</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Betalingsysteem voor verzendingen met pim checken PIM MAILEN!</t>
+  </si>
+  <si>
+    <t>https://neschenwebshop.nl/boeken-beschermen-verlengt-levensduur/</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -602,15 +605,15 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -624,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>42</v>
       </c>
@@ -635,17 +638,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>45</v>
       </c>
@@ -663,9 +666,9 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +686,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -697,7 +700,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -711,15 +714,15 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -730,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -750,7 +753,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F3">
         <v>2001</v>
       </c>
@@ -770,7 +773,7 @@
         <v>154165</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F4">
         <v>2002</v>
       </c>
@@ -787,7 +790,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F5">
         <v>2003</v>
       </c>
@@ -801,7 +804,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
       <c r="F6">
         <v>2011</v>
       </c>
@@ -815,17 +818,17 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -839,7 +842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -853,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>9</v>
       </c>
@@ -864,7 +867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -875,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -886,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -894,7 +897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>38</v>
       </c>
@@ -905,12 +908,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -918,17 +921,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -941,65 +944,70 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200F5BE2-5403-45EF-8374-30DF1DB0BC4F}">
-  <dimension ref="B2:B19"/>
+  <dimension ref="B2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1019,17 +1027,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1047,14 +1055,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1080,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1086,7 +1094,7 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1098,7 +1106,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
